--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6285" windowWidth="28830" windowHeight="6285" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>##class</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -335,6 +335,9 @@
   <si>
     <t>long</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_Card.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1108,13 +1111,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1125,7 +1129,9 @@
         <v>20</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1257,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -213,131 +213,131 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>dict&lt;CardElementg,int&gt;</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳劈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renounce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午时已到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>割喉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌空斩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝圣弃智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oneself</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_Card.xlsx</t>
+  </si>
+  <si>
+    <t>dict&lt;CardElement,int&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CardElement</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;CardElementg,int&gt;</t>
-  </si>
-  <si>
-    <t>dict&lt;CardElementg,int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>突围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extract</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳劈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renounce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>午时已到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>割喉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌空斩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝圣弃智</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oneself</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌_Card.xlsx</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
@@ -789,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
@@ -801,19 +801,19 @@
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -821,16 +821,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -838,23 +838,23 @@
         <v>10000</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -863,23 +863,23 @@
         <v>10001</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -890,23 +890,23 @@
         <v>10002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -917,23 +917,23 @@
         <v>10003</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>-1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -944,23 +944,23 @@
         <v>10004</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2">
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2">
         <v>12</v>
@@ -971,23 +971,23 @@
         <v>10005</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>-1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
@@ -998,23 +998,23 @@
         <v>10006</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1025,23 +1025,23 @@
         <v>10007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -1052,23 +1052,23 @@
         <v>10008</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2">
         <v>-1</v>
@@ -1079,23 +1079,23 @@
         <v>10009</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2">
         <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="2">
         <v>25</v>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1189,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1200,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1277,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1"/>
     </row>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -753,9 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -766,54 +766,54 @@
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1111,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>##class</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -88,36 +88,32 @@
     <t>CardType</t>
   </si>
   <si>
+    <t>##enum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CardType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>##enum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌类型</t>
   </si>
   <si>
@@ -213,9 +209,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>dict&lt;CardElementg,int&gt;</t>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -332,11 +325,15 @@
     <t>卡牌_Card.xlsx</t>
   </si>
   <si>
-    <t>dict&lt;CardElement,int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CardElement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;CardElement,long&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;CardElement,long&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -771,31 +768,31 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -804,16 +801,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -821,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -838,23 +835,23 @@
         <v>10000</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -863,23 +860,23 @@
         <v>10001</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -890,23 +887,23 @@
         <v>10002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -917,23 +914,23 @@
         <v>10003</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>-1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -944,23 +941,23 @@
         <v>10004</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2">
         <v>12</v>
@@ -971,23 +968,23 @@
         <v>10005</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2">
         <v>-1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
@@ -998,23 +995,23 @@
         <v>10006</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2">
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1025,23 +1022,23 @@
         <v>10007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -1052,23 +1049,23 @@
         <v>10008</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2">
         <v>-1</v>
@@ -1079,23 +1076,23 @@
         <v>10009</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2">
         <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2">
         <v>25</v>
@@ -1126,11 +1123,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1175,35 +1172,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1217,17 +1214,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1244,13 +1241,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1274,10 +1271,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1294,112 +1291,112 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>##class</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -135,205 +135,194 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>抽牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renounce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oneself</t>
+  </si>
+  <si>
+    <t>自残</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brary</t>
+  </si>
+  <si>
+    <t>牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handack</t>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳劈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renounce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午时已到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>割喉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌空斩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝圣弃智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oneself</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_Card.xlsx</t>
+  </si>
+  <si>
+    <t>CardElement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;CardElement,long&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;CardElement,long&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Extract</t>
-  </si>
-  <si>
-    <t>抽牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renounce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oneself</t>
-  </si>
-  <si>
-    <t>自残</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brary</t>
-  </si>
-  <si>
-    <t>牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handack</t>
-  </si>
-  <si>
-    <t>手牌攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>突围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extract</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳劈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renounce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>午时已到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>割喉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌空斩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝圣弃智</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oneself</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌_Card.xlsx</t>
-  </si>
-  <si>
-    <t>CardElement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;CardElement,long&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;CardElement,long&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>17</v>
@@ -780,19 +769,19 @@
         <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -801,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -818,16 +807,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -835,23 +824,23 @@
         <v>10000</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -860,23 +849,23 @@
         <v>10001</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -887,23 +876,23 @@
         <v>10002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -914,23 +903,23 @@
         <v>10003</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>-1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -941,23 +930,23 @@
         <v>10004</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2">
         <v>12</v>
@@ -968,23 +957,23 @@
         <v>10005</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
         <v>-1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
@@ -995,23 +984,23 @@
         <v>10006</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1022,23 +1011,23 @@
         <v>10007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -1049,23 +1038,23 @@
         <v>10008</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2">
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2">
         <v>-1</v>
@@ -1076,23 +1065,23 @@
         <v>10009</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2">
         <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2">
         <v>25</v>
@@ -1127,7 +1116,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1186,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1197,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1241,13 +1230,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1250,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1274,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1302,101 +1291,101 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>##class</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -323,6 +323,22 @@
   </si>
   <si>
     <t>Extract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动检查唯一性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动检查值存在性,类似ref</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合类型不直接检查</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -741,14 +757,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1095,19 +1111,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1137,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1169,8 +1189,11 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1180,8 +1203,11 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1190,6 +1216,9 @@
       </c>
       <c r="C7" t="s">
         <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>##class</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -757,7 +757,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,15 +849,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="G5" s="2"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -753,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,47 +800,66 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>57</v>
@@ -849,18 +868,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>57</v>
@@ -869,14 +895,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
-        <v>80</v>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -884,37 +910,37 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
@@ -924,24 +950,24 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>57</v>
@@ -951,24 +977,24 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>57</v>
@@ -978,24 +1004,24 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>57</v>
@@ -1005,51 +1031,51 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
@@ -1059,42 +1085,15 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>10009</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="2">
-        <v>50</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="2">
         <v>25</v>
       </c>
     </row>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>##class</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Renounce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>午时已到</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -256,10 +252,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Armor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>藏器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -292,10 +284,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Oneself</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -314,31 +302,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Extract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动检查唯一性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动检查值存在性,类似ref</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合类型不直接检查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>dict&lt;CardElement,long&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>noEmpty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>dict&lt;CardElement,long&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Extract</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动检查唯一性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动检查值存在性,类似ref</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,12)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合类型不直接检查</t>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,10 +840,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -849,7 +861,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="3"/>
@@ -869,16 +881,14 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -901,8 +911,8 @@
       <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>60</v>
+      <c r="H6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -913,7 +923,7 @@
         <v>10003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
@@ -940,7 +950,7 @@
         <v>10004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
@@ -955,19 +965,17 @@
       <c r="G8" s="2">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="2">
-        <v>12</v>
-      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>57</v>
@@ -994,7 +1002,7 @@
         <v>10006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>57</v>
@@ -1010,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1021,7 +1029,7 @@
         <v>10007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>57</v>
@@ -1037,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -1048,10 +1056,10 @@
         <v>10008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -1064,21 +1072,21 @@
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>10009</v>
+      <c r="A13" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -1091,7 +1099,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2">
         <v>25</v>
@@ -1108,7 +1116,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,7 +1135,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1159,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1172,6 +1180,9 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1184,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1192,13 +1203,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1206,13 +1217,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1284,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1314,7 +1325,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>

--- a/Csv/Card/卡牌_Card.xlsx
+++ b/Csv/Card/卡牌_Card.xlsx
@@ -765,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,65 +892,49 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>10002</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
@@ -960,22 +944,24 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>57</v>
@@ -985,51 +971,32 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>10006</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>57</v>
@@ -1039,69 +1006,123 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
+      <c r="A13" s="3">
+        <v>10007</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="2">
         <v>50</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I15" s="2">
         <v>25</v>
       </c>
     </row>
@@ -1116,7 +1137,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" activeCellId="1" sqref="E5 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1237,7 +1258,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
